--- a/Filtered_By_Region/Region IX/Region IX_QRF.xlsx
+++ b/Filtered_By_Region/Region IX/Region IX_QRF.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT17"/>
+  <dimension ref="A1:AU17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,6 +669,11 @@
           <t>Unnamed: 45</t>
         </is>
       </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -704,7 +710,6 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SLOPE PROTECTION</t>
@@ -727,10 +732,10 @@
       <c r="O2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="3" t="n">
         <v>44196</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="R2" t="inlineStr">
@@ -743,7 +748,7 @@
           <t>QRF 2020-RIX-ZDN-001</t>
         </is>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="3" t="n">
         <v>43936</v>
       </c>
       <c r="U2" t="inlineStr">
@@ -771,7 +776,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
@@ -808,16 +812,11 @@
       <c r="AL2" t="n">
         <v>0</v>
       </c>
-      <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr">
         <is>
           <t>SLOPE PROTECTION</t>
@@ -864,7 +863,6 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SLOPE PROTECTION</t>
@@ -887,10 +885,10 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="3" t="n">
         <v>44196</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="Q3" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="R3" t="inlineStr">
@@ -903,7 +901,7 @@
           <t>QRF 2020-RIX-ZDN-002</t>
         </is>
       </c>
-      <c r="T3" s="2" t="n">
+      <c r="T3" s="3" t="n">
         <v>43936</v>
       </c>
       <c r="U3" t="inlineStr">
@@ -931,7 +929,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
@@ -968,16 +965,11 @@
       <c r="AL3" t="n">
         <v>0</v>
       </c>
-      <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr">
         <is>
           <t>SLOPE PROTECTION</t>
@@ -1049,10 +1041,10 @@
       <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="3" t="n">
         <v>44507</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="Q4" s="3" t="n">
         <v>44517</v>
       </c>
       <c r="R4" t="inlineStr">
@@ -1065,16 +1057,16 @@
           <t>QRF 2022 RIX-ZDN-01</t>
         </is>
       </c>
-      <c r="T4" s="2" t="n">
+      <c r="T4" s="3" t="n">
         <v>44348</v>
       </c>
-      <c r="U4" s="2" t="n">
+      <c r="U4" s="3" t="n">
         <v>44356</v>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="V4" s="3" t="n">
         <v>44369</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="W4" s="3" t="n">
         <v>44375</v>
       </c>
       <c r="X4" t="inlineStr">
@@ -1087,7 +1079,6 @@
           <t>July 6, 2021</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
@@ -1124,16 +1115,11 @@
       <c r="AL4" t="n">
         <v>0</v>
       </c>
-      <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -1205,10 +1191,10 @@
       <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="3" t="n">
         <v>44925</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="Q5" s="3" t="n">
         <v>44925</v>
       </c>
       <c r="R5" t="inlineStr">
@@ -1221,16 +1207,16 @@
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T5" s="2" t="n">
+      <c r="T5" s="3" t="n">
         <v>44708</v>
       </c>
-      <c r="U5" s="2" t="n">
+      <c r="U5" s="3" t="n">
         <v>44720</v>
       </c>
-      <c r="V5" s="2" t="n">
+      <c r="V5" s="3" t="n">
         <v>44729</v>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="W5" s="3" t="n">
         <v>44742</v>
       </c>
       <c r="X5" t="inlineStr">
@@ -1243,7 +1229,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
@@ -1280,16 +1265,12 @@
       <c r="AL5" t="n">
         <v>0</v>
       </c>
-      <c r="AM5" s="2" t="n">
+      <c r="AM5" s="3" t="n">
         <v>44986</v>
       </c>
       <c r="AN5" t="n">
         <v>3.23</v>
       </c>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1361,10 +1342,10 @@
       <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="3" t="n">
         <v>44925</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="Q6" s="3" t="n">
         <v>44925</v>
       </c>
       <c r="R6" t="inlineStr">
@@ -1377,16 +1358,16 @@
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="T6" s="3" t="n">
         <v>44708</v>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="U6" s="3" t="n">
         <v>44720</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="V6" s="3" t="n">
         <v>44729</v>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="W6" s="3" t="n">
         <v>44742</v>
       </c>
       <c r="X6" t="inlineStr">
@@ -1399,7 +1380,6 @@
           <t>Smart Move Builders</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
@@ -1436,16 +1416,12 @@
       <c r="AL6" t="n">
         <v>0</v>
       </c>
-      <c r="AM6" s="2" t="n">
+      <c r="AM6" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN6" t="n">
         <v>4.23</v>
       </c>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1517,10 +1493,10 @@
       <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="P7" s="2" t="n">
+      <c r="P7" s="3" t="n">
         <v>44925</v>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="Q7" s="3" t="n">
         <v>44925</v>
       </c>
       <c r="R7" t="inlineStr">
@@ -1533,16 +1509,16 @@
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T7" s="2" t="n">
+      <c r="T7" s="3" t="n">
         <v>44708</v>
       </c>
-      <c r="U7" s="2" t="n">
+      <c r="U7" s="3" t="n">
         <v>44720</v>
       </c>
-      <c r="V7" s="2" t="n">
+      <c r="V7" s="3" t="n">
         <v>44729</v>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="W7" s="3" t="n">
         <v>44742</v>
       </c>
       <c r="X7" t="inlineStr">
@@ -1555,7 +1531,6 @@
           <t>Smart Move Builders</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
@@ -1592,16 +1567,12 @@
       <c r="AL7" t="n">
         <v>0</v>
       </c>
-      <c r="AM7" s="2" t="n">
+      <c r="AM7" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN7" t="n">
         <v>4.23</v>
       </c>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1673,10 +1644,10 @@
       <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="3" t="n">
         <v>44925</v>
       </c>
-      <c r="Q8" s="2" t="n">
+      <c r="Q8" s="3" t="n">
         <v>44925</v>
       </c>
       <c r="R8" t="inlineStr">
@@ -1689,16 +1660,16 @@
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T8" s="2" t="n">
+      <c r="T8" s="3" t="n">
         <v>44708</v>
       </c>
-      <c r="U8" s="2" t="n">
+      <c r="U8" s="3" t="n">
         <v>44720</v>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="V8" s="3" t="n">
         <v>44729</v>
       </c>
-      <c r="W8" s="2" t="n">
+      <c r="W8" s="3" t="n">
         <v>44742</v>
       </c>
       <c r="X8" t="inlineStr">
@@ -1711,7 +1682,6 @@
           <t>Smart Move Builders</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
@@ -1748,16 +1718,12 @@
       <c r="AL8" t="n">
         <v>0</v>
       </c>
-      <c r="AM8" s="2" t="n">
+      <c r="AM8" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN8" t="n">
         <v>4.23</v>
       </c>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1829,10 +1795,10 @@
       <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P9" s="2" t="n">
+      <c r="P9" s="3" t="n">
         <v>44925</v>
       </c>
-      <c r="Q9" s="2" t="n">
+      <c r="Q9" s="3" t="n">
         <v>44925</v>
       </c>
       <c r="R9" t="inlineStr">
@@ -1845,16 +1811,16 @@
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T9" s="2" t="n">
+      <c r="T9" s="3" t="n">
         <v>44708</v>
       </c>
-      <c r="U9" s="2" t="n">
+      <c r="U9" s="3" t="n">
         <v>44720</v>
       </c>
-      <c r="V9" s="2" t="n">
+      <c r="V9" s="3" t="n">
         <v>44729</v>
       </c>
-      <c r="W9" s="2" t="n">
+      <c r="W9" s="3" t="n">
         <v>44742</v>
       </c>
       <c r="X9" t="inlineStr">
@@ -1867,7 +1833,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
@@ -1904,16 +1869,12 @@
       <c r="AL9" t="n">
         <v>0</v>
       </c>
-      <c r="AM9" s="2" t="n">
+      <c r="AM9" s="3" t="n">
         <v>44986</v>
       </c>
       <c r="AN9" t="n">
         <v>4.23</v>
       </c>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1985,10 +1946,10 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" s="2" t="n">
+      <c r="P10" s="3" t="n">
         <v>44925</v>
       </c>
-      <c r="Q10" s="2" t="n">
+      <c r="Q10" s="3" t="n">
         <v>44925</v>
       </c>
       <c r="R10" t="inlineStr">
@@ -2001,16 +1962,16 @@
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T10" s="2" t="n">
+      <c r="T10" s="3" t="n">
         <v>44708</v>
       </c>
-      <c r="U10" s="2" t="n">
+      <c r="U10" s="3" t="n">
         <v>44720</v>
       </c>
-      <c r="V10" s="2" t="n">
+      <c r="V10" s="3" t="n">
         <v>44729</v>
       </c>
-      <c r="W10" s="2" t="n">
+      <c r="W10" s="3" t="n">
         <v>44742</v>
       </c>
       <c r="X10" t="inlineStr">
@@ -2023,7 +1984,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
@@ -2060,16 +2020,12 @@
       <c r="AL10" t="n">
         <v>0</v>
       </c>
-      <c r="AM10" s="2" t="n">
+      <c r="AM10" s="3" t="n">
         <v>44986</v>
       </c>
       <c r="AN10" t="n">
         <v>4.23</v>
       </c>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2141,10 +2097,10 @@
       <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P11" s="2" t="n">
+      <c r="P11" s="3" t="n">
         <v>44925</v>
       </c>
-      <c r="Q11" s="2" t="n">
+      <c r="Q11" s="3" t="n">
         <v>44925</v>
       </c>
       <c r="R11" t="inlineStr">
@@ -2157,16 +2113,16 @@
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T11" s="2" t="n">
+      <c r="T11" s="3" t="n">
         <v>44708</v>
       </c>
-      <c r="U11" s="2" t="n">
+      <c r="U11" s="3" t="n">
         <v>44720</v>
       </c>
-      <c r="V11" s="2" t="n">
+      <c r="V11" s="3" t="n">
         <v>44729</v>
       </c>
-      <c r="W11" s="2" t="n">
+      <c r="W11" s="3" t="n">
         <v>44742</v>
       </c>
       <c r="X11" t="inlineStr">
@@ -2179,7 +2135,6 @@
           <t>MJMARI Builders and Development Corporation</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
         <v>0</v>
       </c>
@@ -2216,16 +2171,12 @@
       <c r="AL11" t="n">
         <v>0</v>
       </c>
-      <c r="AM11" s="2" t="n">
+      <c r="AM11" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="AN11" t="n">
         <v>4.23</v>
       </c>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2297,10 +2248,10 @@
       <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P12" s="2" t="n">
+      <c r="P12" s="3" t="n">
         <v>44925</v>
       </c>
-      <c r="Q12" s="2" t="n">
+      <c r="Q12" s="3" t="n">
         <v>44925</v>
       </c>
       <c r="R12" t="inlineStr">
@@ -2313,16 +2264,16 @@
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T12" s="2" t="n">
+      <c r="T12" s="3" t="n">
         <v>44708</v>
       </c>
-      <c r="U12" s="2" t="n">
+      <c r="U12" s="3" t="n">
         <v>44720</v>
       </c>
-      <c r="V12" s="2" t="n">
+      <c r="V12" s="3" t="n">
         <v>44729</v>
       </c>
-      <c r="W12" s="2" t="n">
+      <c r="W12" s="3" t="n">
         <v>44742</v>
       </c>
       <c r="X12" t="inlineStr">
@@ -2335,7 +2286,6 @@
           <t>MJMARI Builders and Development Corporation</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
         <v>0</v>
       </c>
@@ -2372,16 +2322,12 @@
       <c r="AL12" t="n">
         <v>0</v>
       </c>
-      <c r="AM12" s="2" t="n">
+      <c r="AM12" s="3" t="n">
         <v>44986</v>
       </c>
       <c r="AN12" t="n">
         <v>4.23</v>
       </c>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2453,10 +2399,10 @@
       <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P13" s="2" t="n">
+      <c r="P13" s="3" t="n">
         <v>44925</v>
       </c>
-      <c r="Q13" s="2" t="n">
+      <c r="Q13" s="3" t="n">
         <v>44925</v>
       </c>
       <c r="R13" t="inlineStr">
@@ -2469,16 +2415,16 @@
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T13" s="2" t="n">
+      <c r="T13" s="3" t="n">
         <v>44708</v>
       </c>
-      <c r="U13" s="2" t="n">
+      <c r="U13" s="3" t="n">
         <v>44720</v>
       </c>
-      <c r="V13" s="2" t="n">
+      <c r="V13" s="3" t="n">
         <v>44729</v>
       </c>
-      <c r="W13" s="2" t="n">
+      <c r="W13" s="3" t="n">
         <v>44742</v>
       </c>
       <c r="X13" t="inlineStr">
@@ -2491,7 +2437,6 @@
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
@@ -2528,7 +2473,7 @@
       <c r="AL13" t="n">
         <v>0</v>
       </c>
-      <c r="AM13" s="2" t="n">
+      <c r="AM13" s="3" t="n">
         <v>44896</v>
       </c>
       <c r="AN13" t="inlineStr">
@@ -2536,10 +2481,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2615,10 +2556,9 @@
       <c r="O14" t="n">
         <v>0.79</v>
       </c>
-      <c r="P14" s="2" t="n">
+      <c r="P14" s="3" t="n">
         <v>45505</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
           <t>SDODAP-INFRA-2023-003</t>
@@ -2629,19 +2569,19 @@
           <t>SDODAP-INFRA-2023-003</t>
         </is>
       </c>
-      <c r="T14" s="2" t="n">
+      <c r="T14" s="3" t="n">
         <v>45244</v>
       </c>
-      <c r="U14" s="2" t="n">
+      <c r="U14" s="3" t="n">
         <v>45251</v>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="V14" s="3" t="n">
         <v>45267</v>
       </c>
-      <c r="W14" s="2" t="n">
+      <c r="W14" s="3" t="n">
         <v>45282</v>
       </c>
-      <c r="X14" s="2" t="n">
+      <c r="X14" s="3" t="n">
         <v>45294</v>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2649,7 +2589,6 @@
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
@@ -2686,12 +2625,6 @@
       <c r="AL14" t="n">
         <v>0</v>
       </c>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -2767,10 +2700,9 @@
       <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P15" s="2" t="n">
+      <c r="P15" s="3" t="n">
         <v>45474</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
           <t>SDODAP-INFRA-2023-002</t>
@@ -2781,17 +2713,16 @@
           <t>SDODAP-INFRA-2023-002</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" s="2" t="n">
+      <c r="U15" s="3" t="n">
         <v>45251</v>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="V15" s="3" t="n">
         <v>45267</v>
       </c>
-      <c r="W15" s="2" t="n">
+      <c r="W15" s="3" t="n">
         <v>45282</v>
       </c>
-      <c r="X15" s="2" t="n">
+      <c r="X15" s="3" t="n">
         <v>45294</v>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2799,7 +2730,6 @@
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
@@ -2836,14 +2766,9 @@
       <c r="AL15" t="n">
         <v>0</v>
       </c>
-      <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="n">
         <v>4.24</v>
       </c>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -2889,7 +2814,6 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
         <v>3</v>
       </c>
@@ -2917,10 +2841,10 @@
       <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P16" s="2" t="n">
+      <c r="P16" s="3" t="n">
         <v>45371</v>
       </c>
-      <c r="Q16" s="2" t="n">
+      <c r="Q16" s="3" t="n">
         <v>45369</v>
       </c>
       <c r="R16" t="inlineStr">
@@ -2933,17 +2857,16 @@
           <t>SDODAP-INFRA-2023-001</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" s="2" t="n">
+      <c r="U16" s="3" t="n">
         <v>45251</v>
       </c>
-      <c r="V16" s="2" t="n">
+      <c r="V16" s="3" t="n">
         <v>45267</v>
       </c>
-      <c r="W16" s="2" t="n">
+      <c r="W16" s="3" t="n">
         <v>45282</v>
       </c>
-      <c r="X16" s="2" t="n">
+      <c r="X16" s="3" t="n">
         <v>45294</v>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2951,7 +2874,6 @@
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
@@ -2988,14 +2910,9 @@
       <c r="AL16" t="n">
         <v>0</v>
       </c>
-      <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="n">
         <v>3.24</v>
       </c>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3121,7 +3038,6 @@
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
@@ -3158,16 +3074,11 @@
       <c r="AL17" t="n">
         <v>0</v>
       </c>
-      <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr">
         <is>
           <t>Fire</t>
         </is>
       </c>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -3176,6 +3087,79 @@
       <c r="AT17" t="inlineStr">
         <is>
           <t>Ongoing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AU2:AU17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/Region IX/Region IX_QRF.xlsx
+++ b/Filtered_By_Region/Region IX/Region IX_QRF.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,15 +64,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,1783 +447,1813 @@
   <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="29" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="186" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="27" customWidth="1" min="17" max="17"/>
+    <col width="38" customWidth="1" min="18" max="18"/>
+    <col width="23" customWidth="1" min="19" max="19"/>
+    <col width="31" customWidth="1" min="20" max="20"/>
+    <col width="27" customWidth="1" min="21" max="21"/>
+    <col width="21" customWidth="1" min="22" max="22"/>
+    <col width="33" customWidth="1" min="23" max="23"/>
+    <col width="31" customWidth="1" min="24" max="24"/>
+    <col width="45" customWidth="1" min="25" max="25"/>
+    <col width="15" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" s="3" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="AA1" s="4" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>QRF 2020</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>303711</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Don Jose Aguirre NHS</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>MANUKAN</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="inlineStr"/>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="inlineStr"/>
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SLOPE PROTECTION</t>
         </is>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="5" t="n">
         <v>8866108.439999999</v>
       </c>
-      <c r="L2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="4" t="n">
+      <c r="L2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5" t="n">
         <v>8808680.91</v>
       </c>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="5" t="n">
+      <c r="O2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="6" t="n">
         <v>44196</v>
       </c>
-      <c r="Q2" s="5" t="n">
+      <c r="Q2" s="6" t="n">
         <v>44181</v>
       </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>QRF 2020-RIX-ZDN</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>QRF 2020-RIX-ZDN-001</t>
         </is>
       </c>
-      <c r="T2" s="5" t="n">
+      <c r="T2" s="6" t="n">
         <v>43936</v>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>April 24, 2020</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>May 7, 2020</t>
         </is>
       </c>
-      <c r="W2" s="4" t="inlineStr">
+      <c r="W2" s="5" t="inlineStr">
         <is>
           <t>May 26, 2020</t>
         </is>
       </c>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>June 15, 2020</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z2" s="4" t="inlineStr"/>
-      <c r="AA2" s="4" t="n"/>
+      <c r="Z2" s="5" t="inlineStr"/>
+      <c r="AA2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>QRF 2020</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>303730</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Siayan National High School</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>SIAYAN</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="inlineStr"/>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="inlineStr"/>
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SLOPE PROTECTION</t>
         </is>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <v>18706024.7</v>
       </c>
-      <c r="L3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4" t="n">
+      <c r="L3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5" t="n">
         <v>18597394.16</v>
       </c>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="5" t="n">
+      <c r="O3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="6" t="n">
         <v>44196</v>
       </c>
-      <c r="Q3" s="5" t="n">
+      <c r="Q3" s="6" t="n">
         <v>44181</v>
       </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="R3" s="5" t="inlineStr">
         <is>
           <t>QRF 2020-RIX-ZDN</t>
         </is>
       </c>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>QRF 2020-RIX-ZDN-002</t>
         </is>
       </c>
-      <c r="T3" s="5" t="n">
+      <c r="T3" s="6" t="n">
         <v>43936</v>
       </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>April 24, 2020</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>May 7, 2020</t>
         </is>
       </c>
-      <c r="W3" s="4" t="inlineStr">
+      <c r="W3" s="5" t="inlineStr">
         <is>
           <t>May 26, 2020</t>
         </is>
       </c>
-      <c r="X3" s="4" t="inlineStr">
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t>June 15, 2020</t>
         </is>
       </c>
-      <c r="Y3" s="4" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z3" s="4" t="inlineStr"/>
-      <c r="AA3" s="4" t="n"/>
+      <c r="Z3" s="5" t="inlineStr"/>
+      <c r="AA3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>124753</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Sipaloc ES</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="n">
+      <c r="G4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>FIRE INCIDENT</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <v>4553463.46</v>
       </c>
-      <c r="L4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4" t="n">
+      <c r="L4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5" t="n">
         <v>4541309.89</v>
       </c>
-      <c r="N4" s="4" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="5" t="n">
+      <c r="O4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="6" t="n">
         <v>44507</v>
       </c>
-      <c r="Q4" s="5" t="n">
+      <c r="Q4" s="6" t="n">
         <v>44517</v>
       </c>
-      <c r="R4" s="4" t="inlineStr">
+      <c r="R4" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S4" s="4" t="inlineStr">
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 RIX-ZDN-01</t>
         </is>
       </c>
-      <c r="T4" s="5" t="n">
+      <c r="T4" s="6" t="n">
         <v>44348</v>
       </c>
-      <c r="U4" s="5" t="n">
+      <c r="U4" s="6" t="n">
         <v>44356</v>
       </c>
-      <c r="V4" s="5" t="n">
+      <c r="V4" s="6" t="n">
         <v>44369</v>
       </c>
-      <c r="W4" s="5" t="n">
+      <c r="W4" s="6" t="n">
         <v>44375</v>
       </c>
-      <c r="X4" s="4" t="inlineStr">
+      <c r="X4" s="5" t="inlineStr">
         <is>
           <t>July 6, 2021</t>
         </is>
       </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>July 6, 2021</t>
         </is>
       </c>
-      <c r="Z4" s="4" t="inlineStr"/>
-      <c r="AA4" s="4" t="n"/>
+      <c r="Z4" s="5" t="inlineStr"/>
+      <c r="AA4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>124541</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>New Siquijor ES</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="G5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <v>2256282.509364154</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4" t="n">
+      <c r="L5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5" t="n">
         <v>2251032.51</v>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="N5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="5" t="n">
+      <c r="O5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="Q5" s="5" t="n">
+      <c r="Q5" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="R5" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S5" s="4" t="inlineStr">
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T5" s="5" t="n">
+      <c r="T5" s="6" t="n">
         <v>44708</v>
       </c>
-      <c r="U5" s="5" t="n">
+      <c r="U5" s="6" t="n">
         <v>44720</v>
       </c>
-      <c r="V5" s="5" t="n">
+      <c r="V5" s="6" t="n">
         <v>44729</v>
       </c>
-      <c r="W5" s="5" t="n">
+      <c r="W5" s="6" t="n">
         <v>44742</v>
       </c>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>Sept. 12, 2022</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z5" s="4" t="inlineStr"/>
-      <c r="AA5" s="4" t="n"/>
+      <c r="Z5" s="5" t="inlineStr"/>
+      <c r="AA5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>124738</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>Bagacay ES</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="G6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <v>2846844.281090202</v>
       </c>
-      <c r="L6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4" t="n">
+      <c r="L6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5" t="n">
         <v>2841594.28</v>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="5" t="n">
+      <c r="O6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="Q6" s="5" t="n">
+      <c r="Q6" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R6" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T6" s="5" t="n">
+      <c r="T6" s="6" t="n">
         <v>44708</v>
       </c>
-      <c r="U6" s="5" t="n">
+      <c r="U6" s="6" t="n">
         <v>44720</v>
       </c>
-      <c r="V6" s="5" t="n">
+      <c r="V6" s="6" t="n">
         <v>44729</v>
       </c>
-      <c r="W6" s="5" t="n">
+      <c r="W6" s="6" t="n">
         <v>44742</v>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X6" s="5" t="inlineStr">
         <is>
           <t>Sept. 23, 2022</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>Smart Move Builders</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr"/>
-      <c r="AA6" s="4" t="n"/>
+      <c r="Z6" s="5" t="inlineStr"/>
+      <c r="AA6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>124740</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Calilic ES</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="n">
+      <c r="G7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="5" t="n">
         <v>1661419.86</v>
       </c>
-      <c r="L7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="4" t="n">
+      <c r="L7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5" t="n">
         <v>1659319.86</v>
       </c>
-      <c r="N7" s="4" t="inlineStr">
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="5" t="n">
+      <c r="O7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="Q7" s="5" t="n">
+      <c r="Q7" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="R7" s="4" t="inlineStr">
+      <c r="R7" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S7" s="4" t="inlineStr">
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T7" s="5" t="n">
+      <c r="T7" s="6" t="n">
         <v>44708</v>
       </c>
-      <c r="U7" s="5" t="n">
+      <c r="U7" s="6" t="n">
         <v>44720</v>
       </c>
-      <c r="V7" s="5" t="n">
+      <c r="V7" s="6" t="n">
         <v>44729</v>
       </c>
-      <c r="W7" s="5" t="n">
+      <c r="W7" s="6" t="n">
         <v>44742</v>
       </c>
-      <c r="X7" s="4" t="inlineStr">
+      <c r="X7" s="5" t="inlineStr">
         <is>
           <t>Sept. 23, 2022</t>
         </is>
       </c>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>Smart Move Builders</t>
         </is>
       </c>
-      <c r="Z7" s="4" t="inlineStr"/>
-      <c r="AA7" s="4" t="n"/>
+      <c r="Z7" s="5" t="inlineStr"/>
+      <c r="AA7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>124742</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>Delapa ES</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="n">
+      <c r="G8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="J8" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="5" t="n">
         <v>1677169.86</v>
       </c>
-      <c r="L8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="4" t="n">
+      <c r="L8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5" t="n">
         <v>1675069.86</v>
       </c>
-      <c r="N8" s="4" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="5" t="n">
+      <c r="O8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="Q8" s="5" t="n">
+      <c r="Q8" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="R8" s="4" t="inlineStr">
+      <c r="R8" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S8" s="4" t="inlineStr">
+      <c r="S8" s="5" t="inlineStr">
         <is>
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T8" s="5" t="n">
+      <c r="T8" s="6" t="n">
         <v>44708</v>
       </c>
-      <c r="U8" s="5" t="n">
+      <c r="U8" s="6" t="n">
         <v>44720</v>
       </c>
-      <c r="V8" s="5" t="n">
+      <c r="V8" s="6" t="n">
         <v>44729</v>
       </c>
-      <c r="W8" s="5" t="n">
+      <c r="W8" s="6" t="n">
         <v>44742</v>
       </c>
-      <c r="X8" s="4" t="inlineStr">
+      <c r="X8" s="5" t="inlineStr">
         <is>
           <t>Sept. 23, 2022</t>
         </is>
       </c>
-      <c r="Y8" s="4" t="inlineStr">
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>Smart Move Builders</t>
         </is>
       </c>
-      <c r="Z8" s="4" t="inlineStr"/>
-      <c r="AA8" s="4" t="n"/>
+      <c r="Z8" s="5" t="inlineStr"/>
+      <c r="AA8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>124743</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>Kanim ES</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="G9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="5" t="n">
         <v>2774392.376398479</v>
       </c>
-      <c r="L9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="4" t="n">
+      <c r="L9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5" t="n">
         <v>2769142.38</v>
       </c>
-      <c r="N9" s="4" t="inlineStr">
+      <c r="N9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="5" t="n">
+      <c r="O9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="Q9" s="5" t="n">
+      <c r="Q9" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="R9" s="4" t="inlineStr">
+      <c r="R9" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S9" s="4" t="inlineStr">
+      <c r="S9" s="5" t="inlineStr">
         <is>
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T9" s="5" t="n">
+      <c r="T9" s="6" t="n">
         <v>44708</v>
       </c>
-      <c r="U9" s="5" t="n">
+      <c r="U9" s="6" t="n">
         <v>44720</v>
       </c>
-      <c r="V9" s="5" t="n">
+      <c r="V9" s="6" t="n">
         <v>44729</v>
       </c>
-      <c r="W9" s="5" t="n">
+      <c r="W9" s="6" t="n">
         <v>44742</v>
       </c>
-      <c r="X9" s="4" t="inlineStr">
+      <c r="X9" s="5" t="inlineStr">
         <is>
           <t>Sept. 12, 2022</t>
         </is>
       </c>
-      <c r="Y9" s="4" t="inlineStr">
+      <c r="Y9" s="5" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z9" s="4" t="inlineStr"/>
-      <c r="AA9" s="4" t="n"/>
+      <c r="Z9" s="5" t="inlineStr"/>
+      <c r="AA9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>124744</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>Libay ES</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="n">
+      <c r="G10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="5" t="n">
         <v>4547777.033295123</v>
       </c>
-      <c r="L10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="4" t="n">
+      <c r="L10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5" t="n">
         <v>4547777.03</v>
       </c>
-      <c r="N10" s="4" t="inlineStr">
+      <c r="N10" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="5" t="n">
+      <c r="O10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="Q10" s="5" t="n">
+      <c r="Q10" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="R10" s="4" t="inlineStr">
+      <c r="R10" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S10" s="4" t="inlineStr">
+      <c r="S10" s="5" t="inlineStr">
         <is>
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T10" s="5" t="n">
+      <c r="T10" s="6" t="n">
         <v>44708</v>
       </c>
-      <c r="U10" s="5" t="n">
+      <c r="U10" s="6" t="n">
         <v>44720</v>
       </c>
-      <c r="V10" s="5" t="n">
+      <c r="V10" s="6" t="n">
         <v>44729</v>
       </c>
-      <c r="W10" s="5" t="n">
+      <c r="W10" s="6" t="n">
         <v>44742</v>
       </c>
-      <c r="X10" s="4" t="inlineStr">
+      <c r="X10" s="5" t="inlineStr">
         <is>
           <t>Sept. 12, 2022</t>
         </is>
       </c>
-      <c r="Y10" s="4" t="inlineStr">
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z10" s="4" t="inlineStr"/>
-      <c r="AA10" s="4" t="n"/>
+      <c r="Z10" s="5" t="inlineStr"/>
+      <c r="AA10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>124802</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Mandih CS</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>SINDANGAN</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="n">
+      <c r="H11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="J11" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="5" t="n">
         <v>3444320.69568623</v>
       </c>
-      <c r="L11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4" t="n">
+      <c r="L11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5" t="n">
         <v>3443315.59</v>
       </c>
-      <c r="N11" s="4" t="inlineStr">
+      <c r="N11" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="5" t="n">
+      <c r="O11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="Q11" s="5" t="n">
+      <c r="Q11" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="R11" s="4" t="inlineStr">
+      <c r="R11" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S11" s="4" t="inlineStr">
+      <c r="S11" s="5" t="inlineStr">
         <is>
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T11" s="5" t="n">
+      <c r="T11" s="6" t="n">
         <v>44708</v>
       </c>
-      <c r="U11" s="5" t="n">
+      <c r="U11" s="6" t="n">
         <v>44720</v>
       </c>
-      <c r="V11" s="5" t="n">
+      <c r="V11" s="6" t="n">
         <v>44729</v>
       </c>
-      <c r="W11" s="5" t="n">
+      <c r="W11" s="6" t="n">
         <v>44742</v>
       </c>
-      <c r="X11" s="4" t="inlineStr">
+      <c r="X11" s="5" t="inlineStr">
         <is>
           <t>Sept. 12, 2022</t>
         </is>
       </c>
-      <c r="Y11" s="4" t="inlineStr">
+      <c r="Y11" s="5" t="inlineStr">
         <is>
           <t>MJMARI Builders and Development Corporation</t>
         </is>
       </c>
-      <c r="Z11" s="4" t="inlineStr"/>
-      <c r="AA11" s="4" t="n"/>
+      <c r="Z11" s="5" t="inlineStr"/>
+      <c r="AA11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>124417</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>Labason CS</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>LABASON</t>
         </is>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="n">
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="J12" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="5" t="n">
         <v>4503127.959291602</v>
       </c>
-      <c r="L12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="4" t="n">
+      <c r="L12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5" t="n">
         <v>4502127.32</v>
       </c>
-      <c r="N12" s="4" t="inlineStr">
+      <c r="N12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="5" t="n">
+      <c r="O12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="Q12" s="5" t="n">
+      <c r="Q12" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="R12" s="4" t="inlineStr">
+      <c r="R12" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S12" s="4" t="inlineStr">
+      <c r="S12" s="5" t="inlineStr">
         <is>
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T12" s="5" t="n">
+      <c r="T12" s="6" t="n">
         <v>44708</v>
       </c>
-      <c r="U12" s="5" t="n">
+      <c r="U12" s="6" t="n">
         <v>44720</v>
       </c>
-      <c r="V12" s="5" t="n">
+      <c r="V12" s="6" t="n">
         <v>44729</v>
       </c>
-      <c r="W12" s="5" t="n">
+      <c r="W12" s="6" t="n">
         <v>44742</v>
       </c>
-      <c r="X12" s="4" t="inlineStr">
+      <c r="X12" s="5" t="inlineStr">
         <is>
           <t>Sept. 12, 2022</t>
         </is>
       </c>
-      <c r="Y12" s="4" t="inlineStr">
+      <c r="Y12" s="5" t="inlineStr">
         <is>
           <t>MJMARI Builders and Development Corporation</t>
         </is>
       </c>
-      <c r="Z12" s="4" t="inlineStr"/>
-      <c r="AA12" s="4" t="n"/>
+      <c r="Z12" s="5" t="inlineStr"/>
+      <c r="AA12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>124625</v>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>Bacong CS</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>SALUG</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4" t="n">
+      <c r="H13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="5" t="n">
         <v>3348970.27</v>
       </c>
-      <c r="L13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="4" t="n">
+      <c r="L13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5" t="n">
         <v>3338470.27</v>
       </c>
-      <c r="N13" s="4" t="inlineStr">
+      <c r="N13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="5" t="n">
+      <c r="O13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="Q13" s="5" t="n">
+      <c r="Q13" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="R13" s="4" t="inlineStr">
+      <c r="R13" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S13" s="4" t="inlineStr">
+      <c r="S13" s="5" t="inlineStr">
         <is>
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T13" s="5" t="n">
+      <c r="T13" s="6" t="n">
         <v>44708</v>
       </c>
-      <c r="U13" s="5" t="n">
+      <c r="U13" s="6" t="n">
         <v>44720</v>
       </c>
-      <c r="V13" s="5" t="n">
+      <c r="V13" s="6" t="n">
         <v>44729</v>
       </c>
-      <c r="W13" s="5" t="n">
+      <c r="W13" s="6" t="n">
         <v>44742</v>
       </c>
-      <c r="X13" s="4" t="inlineStr">
+      <c r="X13" s="5" t="inlineStr">
         <is>
           <t>Sept. 12, 2022</t>
         </is>
       </c>
-      <c r="Y13" s="4" t="inlineStr">
+      <c r="Y13" s="5" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z13" s="4" t="inlineStr"/>
-      <c r="AA13" s="4" t="n"/>
+      <c r="Z13" s="5" t="inlineStr"/>
+      <c r="AA13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Dapitan City</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="5" t="n">
         <v>125916</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>Ilaya Elementary School</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>DAPITAN CITY</t>
         </is>
       </c>
-      <c r="G14" s="4" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4" t="n">
+      <c r="H14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="5" t="inlineStr">
         <is>
           <t>2STY10CL</t>
         </is>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="5" t="n">
         <v>32421818.53105485</v>
       </c>
-      <c r="L14" s="4" t="inlineStr">
+      <c r="L14" s="5" t="inlineStr">
         <is>
           <t>2- NC</t>
         </is>
       </c>
-      <c r="M14" s="4" t="n">
+      <c r="M14" s="5" t="n">
         <v>32327913.17</v>
       </c>
-      <c r="N14" s="4" t="inlineStr">
+      <c r="N14" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O14" s="4" t="n">
+      <c r="O14" s="5" t="n">
         <v>0.79</v>
       </c>
-      <c r="P14" s="5" t="n">
+      <c r="P14" s="6" t="n">
         <v>45505</v>
       </c>
-      <c r="Q14" s="4" t="inlineStr"/>
-      <c r="R14" s="4" t="inlineStr">
+      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="R14" s="5" t="inlineStr">
         <is>
           <t>SDODAP-INFRA-2023-003</t>
         </is>
       </c>
-      <c r="S14" s="4" t="inlineStr">
+      <c r="S14" s="5" t="inlineStr">
         <is>
           <t>SDODAP-INFRA-2023-003</t>
         </is>
       </c>
-      <c r="T14" s="5" t="n">
+      <c r="T14" s="6" t="n">
         <v>45244</v>
       </c>
-      <c r="U14" s="5" t="n">
+      <c r="U14" s="6" t="n">
         <v>45251</v>
       </c>
-      <c r="V14" s="5" t="n">
+      <c r="V14" s="6" t="n">
         <v>45267</v>
       </c>
-      <c r="W14" s="5" t="n">
+      <c r="W14" s="6" t="n">
         <v>45282</v>
       </c>
-      <c r="X14" s="5" t="n">
+      <c r="X14" s="6" t="n">
         <v>45294</v>
       </c>
-      <c r="Y14" s="4" t="inlineStr">
+      <c r="Y14" s="5" t="inlineStr">
         <is>
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z14" s="4" t="inlineStr"/>
-      <c r="AA14" s="4" t="n"/>
+      <c r="Z14" s="5" t="inlineStr"/>
+      <c r="AA14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Dapitan City</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="5" t="n">
         <v>125919</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>Oyan Elementary School</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>DAPITAN CITY</t>
         </is>
       </c>
-      <c r="G15" s="4" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4" t="n">
+      <c r="H15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="J15" s="5" t="inlineStr">
         <is>
           <t>1STY4CL</t>
         </is>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="5" t="n">
         <v>21233503.46665002</v>
       </c>
-      <c r="L15" s="4" t="inlineStr">
+      <c r="L15" s="5" t="inlineStr">
         <is>
           <t>2- NC</t>
         </is>
       </c>
-      <c r="M15" s="4" t="n">
+      <c r="M15" s="5" t="n">
         <v>21363407.93</v>
       </c>
-      <c r="N15" s="4" t="inlineStr">
+      <c r="N15" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="5" t="n">
+      <c r="O15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="6" t="n">
         <v>45474</v>
       </c>
-      <c r="Q15" s="4" t="inlineStr"/>
-      <c r="R15" s="4" t="inlineStr">
+      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="R15" s="5" t="inlineStr">
         <is>
           <t>SDODAP-INFRA-2023-002</t>
         </is>
       </c>
-      <c r="S15" s="4" t="inlineStr">
+      <c r="S15" s="5" t="inlineStr">
         <is>
           <t>SDODAP-INFRA-2023-002</t>
         </is>
       </c>
-      <c r="T15" s="4" t="inlineStr"/>
-      <c r="U15" s="5" t="n">
+      <c r="T15" s="5" t="inlineStr"/>
+      <c r="U15" s="6" t="n">
         <v>45251</v>
       </c>
-      <c r="V15" s="5" t="n">
+      <c r="V15" s="6" t="n">
         <v>45267</v>
       </c>
-      <c r="W15" s="5" t="n">
+      <c r="W15" s="6" t="n">
         <v>45282</v>
       </c>
-      <c r="X15" s="5" t="n">
+      <c r="X15" s="6" t="n">
         <v>45294</v>
       </c>
-      <c r="Y15" s="4" t="inlineStr">
+      <c r="Y15" s="5" t="inlineStr">
         <is>
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z15" s="4" t="inlineStr"/>
-      <c r="AA15" s="4" t="n"/>
+      <c r="Z15" s="5" t="inlineStr"/>
+      <c r="AA15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Dapitan City</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>125919</v>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>Oyan Elementary School</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>DAPITAN CITY</t>
         </is>
       </c>
-      <c r="G16" s="4" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H16" s="4" t="inlineStr"/>
-      <c r="I16" s="4" t="n">
+      <c r="H16" s="5" t="inlineStr"/>
+      <c r="I16" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="J16" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="5" t="n">
         <v>2524721.336038103</v>
       </c>
-      <c r="L16" s="4" t="inlineStr">
+      <c r="L16" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M16" s="4" t="n">
+      <c r="M16" s="5" t="n">
         <v>2488604.93</v>
       </c>
-      <c r="N16" s="4" t="inlineStr">
+      <c r="N16" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="5" t="n">
+      <c r="O16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="6" t="n">
         <v>45371</v>
       </c>
-      <c r="Q16" s="5" t="n">
+      <c r="Q16" s="6" t="n">
         <v>45369</v>
       </c>
-      <c r="R16" s="4" t="inlineStr">
+      <c r="R16" s="5" t="inlineStr">
         <is>
           <t>SDODAP-INFRA-2023-001</t>
         </is>
       </c>
-      <c r="S16" s="4" t="inlineStr">
+      <c r="S16" s="5" t="inlineStr">
         <is>
           <t>SDODAP-INFRA-2023-001</t>
         </is>
       </c>
-      <c r="T16" s="4" t="inlineStr"/>
-      <c r="U16" s="5" t="n">
+      <c r="T16" s="5" t="inlineStr"/>
+      <c r="U16" s="6" t="n">
         <v>45251</v>
       </c>
-      <c r="V16" s="5" t="n">
+      <c r="V16" s="6" t="n">
         <v>45267</v>
       </c>
-      <c r="W16" s="5" t="n">
+      <c r="W16" s="6" t="n">
         <v>45282</v>
       </c>
-      <c r="X16" s="5" t="n">
+      <c r="X16" s="6" t="n">
         <v>45294</v>
       </c>
-      <c r="Y16" s="4" t="inlineStr">
+      <c r="Y16" s="5" t="inlineStr">
         <is>
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z16" s="4" t="inlineStr"/>
-      <c r="AA16" s="4" t="n"/>
+      <c r="Z16" s="5" t="inlineStr"/>
+      <c r="AA16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Zamboanga Del Norte</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="5" t="n">
         <v>124575</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>Lingasad ES</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>POLANCO</t>
         </is>
       </c>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4" t="n">
+      <c r="H17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J17" s="5" t="inlineStr">
         <is>
           <t>2STY6CL with PWD ramp with handrails, parapet all on concrete gutter and complete with Electrical works, Sanitary/plumbing works, Ventilation, Water pumping and Fire protection systems</t>
         </is>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="5" t="n">
         <v>24877957.84</v>
       </c>
-      <c r="L17" s="4" t="inlineStr">
+      <c r="L17" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M17" s="4" t="n">
+      <c r="M17" s="5" t="n">
         <v>24837942.65</v>
       </c>
-      <c r="N17" s="4" t="inlineStr">
+      <c r="N17" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O17" s="4" t="n">
+      <c r="O17" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="P17" s="4" t="inlineStr">
+      <c r="P17" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q17" s="4" t="inlineStr">
+      <c r="Q17" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="R17" s="4" t="inlineStr">
+      <c r="R17" s="5" t="inlineStr">
         <is>
           <t>2024-049-CBZN</t>
         </is>
       </c>
-      <c r="S17" s="4" t="inlineStr">
+      <c r="S17" s="5" t="inlineStr">
         <is>
           <t>CB-2024-043</t>
         </is>
       </c>
-      <c r="T17" s="4" t="inlineStr">
+      <c r="T17" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U17" s="4" t="inlineStr">
+      <c r="U17" s="5" t="inlineStr">
         <is>
           <t>Aug. 01, 2024</t>
         </is>
       </c>
-      <c r="V17" s="4" t="inlineStr">
+      <c r="V17" s="5" t="inlineStr">
         <is>
           <t>Aug. 14, 2024</t>
         </is>
       </c>
-      <c r="W17" s="4" t="inlineStr">
+      <c r="W17" s="5" t="inlineStr">
         <is>
           <t>Sept. 5, 2024</t>
         </is>
       </c>
-      <c r="X17" s="4" t="inlineStr">
+      <c r="X17" s="5" t="inlineStr">
         <is>
           <t>Sept. 10, 2024</t>
         </is>
       </c>
-      <c r="Y17" s="4" t="inlineStr">
+      <c r="Y17" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z17" s="4" t="inlineStr"/>
-      <c r="AA17" s="4" t="n"/>
+      <c r="Z17" s="5" t="inlineStr"/>
+      <c r="AA17" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/Region IX/Region IX_QRF.xlsx
+++ b/Filtered_By_Region/Region IX/Region IX_QRF.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,1811 +453,1865 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="21" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="29" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="186" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="17" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
-    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="29" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="186" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
     <col width="26" customWidth="1" min="16" max="16"/>
-    <col width="27" customWidth="1" min="17" max="17"/>
-    <col width="38" customWidth="1" min="18" max="18"/>
-    <col width="23" customWidth="1" min="19" max="19"/>
-    <col width="31" customWidth="1" min="20" max="20"/>
-    <col width="27" customWidth="1" min="21" max="21"/>
-    <col width="21" customWidth="1" min="22" max="22"/>
-    <col width="33" customWidth="1" min="23" max="23"/>
-    <col width="31" customWidth="1" min="24" max="24"/>
-    <col width="45" customWidth="1" min="25" max="25"/>
-    <col width="15" customWidth="1" min="26" max="26"/>
-    <col width="28" customWidth="1" min="27" max="27"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="27" customWidth="1" min="18" max="18"/>
+    <col width="38" customWidth="1" min="19" max="19"/>
+    <col width="23" customWidth="1" min="20" max="20"/>
+    <col width="31" customWidth="1" min="21" max="21"/>
+    <col width="27" customWidth="1" min="22" max="22"/>
+    <col width="21" customWidth="1" min="23" max="23"/>
+    <col width="33" customWidth="1" min="24" max="24"/>
+    <col width="31" customWidth="1" min="25" max="25"/>
+    <col width="45" customWidth="1" min="26" max="26"/>
+    <col width="15" customWidth="1" min="27" max="27"/>
+    <col width="28" customWidth="1" min="28" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="U1" s="3" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="V1" s="3" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="W1" s="3" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="X1" s="3" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
+      <c r="AA1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" s="4" t="inlineStr">
+      <c r="AB1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>870</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>QRF 2020</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>303711</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Don Jose Aguirre NHS</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>MANUKAN</t>
         </is>
       </c>
-      <c r="G2" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="5" t="inlineStr"/>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="inlineStr"/>
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SLOPE PROTECTION</t>
         </is>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="L2" s="5" t="n">
         <v>8866108.439999999</v>
       </c>
-      <c r="L2" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5" t="n">
         <v>8808680.91</v>
       </c>
-      <c r="N2" s="5" t="inlineStr">
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="6" t="n">
         <v>44196</v>
       </c>
-      <c r="Q2" s="6" t="n">
+      <c r="R2" s="6" t="n">
         <v>44181</v>
       </c>
-      <c r="R2" s="5" t="inlineStr">
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>QRF 2020-RIX-ZDN</t>
         </is>
       </c>
-      <c r="S2" s="5" t="inlineStr">
+      <c r="T2" s="5" t="inlineStr">
         <is>
           <t>QRF 2020-RIX-ZDN-001</t>
         </is>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="U2" s="6" t="n">
         <v>43936</v>
       </c>
-      <c r="U2" s="5" t="inlineStr">
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>April 24, 2020</t>
         </is>
       </c>
-      <c r="V2" s="5" t="inlineStr">
+      <c r="W2" s="5" t="inlineStr">
         <is>
           <t>May 7, 2020</t>
         </is>
       </c>
-      <c r="W2" s="5" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>May 26, 2020</t>
         </is>
       </c>
-      <c r="X2" s="5" t="inlineStr">
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>June 15, 2020</t>
         </is>
       </c>
-      <c r="Y2" s="5" t="inlineStr">
+      <c r="Z2" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z2" s="5" t="inlineStr"/>
-      <c r="AA2" s="7" t="n"/>
+      <c r="AA2" s="5" t="inlineStr"/>
+      <c r="AB2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>871</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>QRF 2020</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>303730</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Siayan National High School</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>SIAYAN</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="H3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5" t="inlineStr"/>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="inlineStr"/>
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF SLOPE PROTECTION</t>
         </is>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="L3" s="5" t="n">
         <v>18706024.7</v>
       </c>
-      <c r="L3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5" t="n">
         <v>18597394.16</v>
       </c>
-      <c r="N3" s="5" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="6" t="n">
+      <c r="P3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6" t="n">
         <v>44196</v>
       </c>
-      <c r="Q3" s="6" t="n">
+      <c r="R3" s="6" t="n">
         <v>44181</v>
       </c>
-      <c r="R3" s="5" t="inlineStr">
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>QRF 2020-RIX-ZDN</t>
         </is>
       </c>
-      <c r="S3" s="5" t="inlineStr">
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t>QRF 2020-RIX-ZDN-002</t>
         </is>
       </c>
-      <c r="T3" s="6" t="n">
+      <c r="U3" s="6" t="n">
         <v>43936</v>
       </c>
-      <c r="U3" s="5" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>April 24, 2020</t>
         </is>
       </c>
-      <c r="V3" s="5" t="inlineStr">
+      <c r="W3" s="5" t="inlineStr">
         <is>
           <t>May 7, 2020</t>
         </is>
       </c>
-      <c r="W3" s="5" t="inlineStr">
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t>May 26, 2020</t>
         </is>
       </c>
-      <c r="X3" s="5" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t>June 15, 2020</t>
         </is>
       </c>
-      <c r="Y3" s="5" t="inlineStr">
+      <c r="Z3" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z3" s="5" t="inlineStr"/>
-      <c r="AA3" s="7" t="n"/>
+      <c r="AA3" s="5" t="inlineStr"/>
+      <c r="AB3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>1981</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>QRF 2021</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>124753</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Sipaloc ES</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>FIRE INCIDENT</t>
         </is>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="L4" s="5" t="n">
         <v>4553463.46</v>
       </c>
-      <c r="L4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5" t="n">
         <v>4541309.89</v>
       </c>
-      <c r="N4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="6" t="n">
+      <c r="P4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="6" t="n">
         <v>44507</v>
       </c>
-      <c r="Q4" s="6" t="n">
+      <c r="R4" s="6" t="n">
         <v>44517</v>
       </c>
-      <c r="R4" s="5" t="inlineStr">
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S4" s="5" t="inlineStr">
+      <c r="T4" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 RIX-ZDN-01</t>
         </is>
       </c>
-      <c r="T4" s="6" t="n">
+      <c r="U4" s="6" t="n">
         <v>44348</v>
       </c>
-      <c r="U4" s="6" t="n">
+      <c r="V4" s="6" t="n">
         <v>44356</v>
       </c>
-      <c r="V4" s="6" t="n">
+      <c r="W4" s="6" t="n">
         <v>44369</v>
       </c>
-      <c r="W4" s="6" t="n">
+      <c r="X4" s="6" t="n">
         <v>44375</v>
       </c>
-      <c r="X4" s="5" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>July 6, 2021</t>
         </is>
       </c>
-      <c r="Y4" s="5" t="inlineStr">
+      <c r="Z4" s="5" t="inlineStr">
         <is>
           <t>July 6, 2021</t>
         </is>
       </c>
-      <c r="Z4" s="5" t="inlineStr"/>
-      <c r="AA4" s="7" t="n"/>
+      <c r="AA4" s="5" t="inlineStr"/>
+      <c r="AB4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>2417</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>124541</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>New Siquijor ES</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>MUTIA</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="L5" s="5" t="n">
         <v>2256282.509364154</v>
       </c>
-      <c r="L5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5" t="n">
         <v>2251032.51</v>
       </c>
-      <c r="N5" s="5" t="inlineStr">
+      <c r="O5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="6" t="n">
-        <v>44925</v>
+      <c r="P5" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="Q5" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="R5" s="5" t="inlineStr">
+      <c r="R5" s="6" t="n">
+        <v>44925</v>
+      </c>
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S5" s="5" t="inlineStr">
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T5" s="6" t="n">
+      <c r="U5" s="6" t="n">
         <v>44708</v>
       </c>
-      <c r="U5" s="6" t="n">
+      <c r="V5" s="6" t="n">
         <v>44720</v>
       </c>
-      <c r="V5" s="6" t="n">
+      <c r="W5" s="6" t="n">
         <v>44729</v>
       </c>
-      <c r="W5" s="6" t="n">
+      <c r="X5" s="6" t="n">
         <v>44742</v>
       </c>
-      <c r="X5" s="5" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>Sept. 12, 2022</t>
         </is>
       </c>
-      <c r="Y5" s="5" t="inlineStr">
+      <c r="Z5" s="5" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z5" s="5" t="inlineStr"/>
-      <c r="AA5" s="7" t="n"/>
+      <c r="AA5" s="5" t="inlineStr"/>
+      <c r="AB5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>2418</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>124738</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>Bagacay ES</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="L6" s="5" t="n">
         <v>2846844.281090202</v>
       </c>
-      <c r="L6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5" t="n">
         <v>2841594.28</v>
       </c>
-      <c r="N6" s="5" t="inlineStr">
+      <c r="O6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="6" t="n">
-        <v>44925</v>
+      <c r="P6" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="Q6" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="R6" s="5" t="inlineStr">
+      <c r="R6" s="6" t="n">
+        <v>44925</v>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S6" s="5" t="inlineStr">
+      <c r="T6" s="5" t="inlineStr">
         <is>
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T6" s="6" t="n">
+      <c r="U6" s="6" t="n">
         <v>44708</v>
       </c>
-      <c r="U6" s="6" t="n">
+      <c r="V6" s="6" t="n">
         <v>44720</v>
       </c>
-      <c r="V6" s="6" t="n">
+      <c r="W6" s="6" t="n">
         <v>44729</v>
       </c>
-      <c r="W6" s="6" t="n">
+      <c r="X6" s="6" t="n">
         <v>44742</v>
       </c>
-      <c r="X6" s="5" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>Sept. 23, 2022</t>
         </is>
       </c>
-      <c r="Y6" s="5" t="inlineStr">
+      <c r="Z6" s="5" t="inlineStr">
         <is>
           <t>Smart Move Builders</t>
         </is>
       </c>
-      <c r="Z6" s="5" t="inlineStr"/>
-      <c r="AA6" s="7" t="n"/>
+      <c r="AA6" s="5" t="inlineStr"/>
+      <c r="AB6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>2419</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>124740</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Calilic ES</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="L7" s="5" t="n">
         <v>1661419.86</v>
       </c>
-      <c r="L7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5" t="n">
         <v>1659319.86</v>
       </c>
-      <c r="N7" s="5" t="inlineStr">
+      <c r="O7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="6" t="n">
-        <v>44925</v>
+      <c r="P7" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="Q7" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="R7" s="5" t="inlineStr">
+      <c r="R7" s="6" t="n">
+        <v>44925</v>
+      </c>
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S7" s="5" t="inlineStr">
+      <c r="T7" s="5" t="inlineStr">
         <is>
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T7" s="6" t="n">
+      <c r="U7" s="6" t="n">
         <v>44708</v>
       </c>
-      <c r="U7" s="6" t="n">
+      <c r="V7" s="6" t="n">
         <v>44720</v>
       </c>
-      <c r="V7" s="6" t="n">
+      <c r="W7" s="6" t="n">
         <v>44729</v>
       </c>
-      <c r="W7" s="6" t="n">
+      <c r="X7" s="6" t="n">
         <v>44742</v>
       </c>
-      <c r="X7" s="5" t="inlineStr">
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>Sept. 23, 2022</t>
         </is>
       </c>
-      <c r="Y7" s="5" t="inlineStr">
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>Smart Move Builders</t>
         </is>
       </c>
-      <c r="Z7" s="5" t="inlineStr"/>
-      <c r="AA7" s="7" t="n"/>
+      <c r="AA7" s="5" t="inlineStr"/>
+      <c r="AB7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="5" t="n">
+        <v>2420</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>124742</v>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>Delapa ES</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G8" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="L8" s="5" t="n">
         <v>1677169.86</v>
       </c>
-      <c r="L8" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5" t="n">
         <v>1675069.86</v>
       </c>
-      <c r="N8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="6" t="n">
-        <v>44925</v>
+      <c r="P8" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="Q8" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="R8" s="5" t="inlineStr">
+      <c r="R8" s="6" t="n">
+        <v>44925</v>
+      </c>
+      <c r="S8" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S8" s="5" t="inlineStr">
+      <c r="T8" s="5" t="inlineStr">
         <is>
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T8" s="6" t="n">
+      <c r="U8" s="6" t="n">
         <v>44708</v>
       </c>
-      <c r="U8" s="6" t="n">
+      <c r="V8" s="6" t="n">
         <v>44720</v>
       </c>
-      <c r="V8" s="6" t="n">
+      <c r="W8" s="6" t="n">
         <v>44729</v>
       </c>
-      <c r="W8" s="6" t="n">
+      <c r="X8" s="6" t="n">
         <v>44742</v>
       </c>
-      <c r="X8" s="5" t="inlineStr">
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>Sept. 23, 2022</t>
         </is>
       </c>
-      <c r="Y8" s="5" t="inlineStr">
+      <c r="Z8" s="5" t="inlineStr">
         <is>
           <t>Smart Move Builders</t>
         </is>
       </c>
-      <c r="Z8" s="5" t="inlineStr"/>
-      <c r="AA8" s="7" t="n"/>
+      <c r="AA8" s="5" t="inlineStr"/>
+      <c r="AB8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="5" t="n">
+        <v>2421</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>124743</v>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>Kanim ES</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G9" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="L9" s="5" t="n">
         <v>2774392.376398479</v>
       </c>
-      <c r="L9" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5" t="n">
         <v>2769142.38</v>
       </c>
-      <c r="N9" s="5" t="inlineStr">
+      <c r="O9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="6" t="n">
-        <v>44925</v>
+      <c r="P9" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="Q9" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="R9" s="5" t="inlineStr">
+      <c r="R9" s="6" t="n">
+        <v>44925</v>
+      </c>
+      <c r="S9" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S9" s="5" t="inlineStr">
+      <c r="T9" s="5" t="inlineStr">
         <is>
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T9" s="6" t="n">
+      <c r="U9" s="6" t="n">
         <v>44708</v>
       </c>
-      <c r="U9" s="6" t="n">
+      <c r="V9" s="6" t="n">
         <v>44720</v>
       </c>
-      <c r="V9" s="6" t="n">
+      <c r="W9" s="6" t="n">
         <v>44729</v>
       </c>
-      <c r="W9" s="6" t="n">
+      <c r="X9" s="6" t="n">
         <v>44742</v>
       </c>
-      <c r="X9" s="5" t="inlineStr">
+      <c r="Y9" s="5" t="inlineStr">
         <is>
           <t>Sept. 12, 2022</t>
         </is>
       </c>
-      <c r="Y9" s="5" t="inlineStr">
+      <c r="Z9" s="5" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z9" s="5" t="inlineStr"/>
-      <c r="AA9" s="7" t="n"/>
+      <c r="AA9" s="5" t="inlineStr"/>
+      <c r="AB9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="5" t="n">
+        <v>2422</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
         <v>124744</v>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Libay ES</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>SIBUTAD</t>
         </is>
       </c>
-      <c r="G10" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="L10" s="5" t="n">
         <v>4547777.033295123</v>
       </c>
-      <c r="L10" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5" t="n">
         <v>4547777.03</v>
       </c>
-      <c r="N10" s="5" t="inlineStr">
+      <c r="O10" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="6" t="n">
-        <v>44925</v>
+      <c r="P10" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="Q10" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="R10" s="5" t="inlineStr">
+      <c r="R10" s="6" t="n">
+        <v>44925</v>
+      </c>
+      <c r="S10" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S10" s="5" t="inlineStr">
+      <c r="T10" s="5" t="inlineStr">
         <is>
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T10" s="6" t="n">
+      <c r="U10" s="6" t="n">
         <v>44708</v>
       </c>
-      <c r="U10" s="6" t="n">
+      <c r="V10" s="6" t="n">
         <v>44720</v>
       </c>
-      <c r="V10" s="6" t="n">
+      <c r="W10" s="6" t="n">
         <v>44729</v>
       </c>
-      <c r="W10" s="6" t="n">
+      <c r="X10" s="6" t="n">
         <v>44742</v>
       </c>
-      <c r="X10" s="5" t="inlineStr">
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>Sept. 12, 2022</t>
         </is>
       </c>
-      <c r="Y10" s="5" t="inlineStr">
+      <c r="Z10" s="5" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z10" s="5" t="inlineStr"/>
-      <c r="AA10" s="7" t="n"/>
+      <c r="AA10" s="5" t="inlineStr"/>
+      <c r="AB10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="5" t="n">
+        <v>2423</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>124802</v>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Mandih CS</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>SINDANGAN</t>
         </is>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="H11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J11" s="5" t="inlineStr">
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="L11" s="5" t="n">
         <v>3444320.69568623</v>
       </c>
-      <c r="L11" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5" t="n">
         <v>3443315.59</v>
       </c>
-      <c r="N11" s="5" t="inlineStr">
+      <c r="O11" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6" t="n">
-        <v>44925</v>
+      <c r="P11" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="Q11" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="R11" s="5" t="inlineStr">
+      <c r="R11" s="6" t="n">
+        <v>44925</v>
+      </c>
+      <c r="S11" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S11" s="5" t="inlineStr">
+      <c r="T11" s="5" t="inlineStr">
         <is>
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T11" s="6" t="n">
+      <c r="U11" s="6" t="n">
         <v>44708</v>
       </c>
-      <c r="U11" s="6" t="n">
+      <c r="V11" s="6" t="n">
         <v>44720</v>
       </c>
-      <c r="V11" s="6" t="n">
+      <c r="W11" s="6" t="n">
         <v>44729</v>
       </c>
-      <c r="W11" s="6" t="n">
+      <c r="X11" s="6" t="n">
         <v>44742</v>
       </c>
-      <c r="X11" s="5" t="inlineStr">
+      <c r="Y11" s="5" t="inlineStr">
         <is>
           <t>Sept. 12, 2022</t>
         </is>
       </c>
-      <c r="Y11" s="5" t="inlineStr">
+      <c r="Z11" s="5" t="inlineStr">
         <is>
           <t>MJMARI Builders and Development Corporation</t>
         </is>
       </c>
-      <c r="Z11" s="5" t="inlineStr"/>
-      <c r="AA11" s="7" t="n"/>
+      <c r="AA11" s="5" t="inlineStr"/>
+      <c r="AB11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="5" t="n">
+        <v>2424</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>124417</v>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Labason CS</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>LABASON</t>
         </is>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="H12" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H12" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J12" s="5" t="inlineStr">
+      <c r="K12" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="L12" s="5" t="n">
         <v>4503127.959291602</v>
       </c>
-      <c r="L12" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5" t="n">
         <v>4502127.32</v>
       </c>
-      <c r="N12" s="5" t="inlineStr">
+      <c r="O12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="6" t="n">
-        <v>44925</v>
+      <c r="P12" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="Q12" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="R12" s="5" t="inlineStr">
+      <c r="R12" s="6" t="n">
+        <v>44925</v>
+      </c>
+      <c r="S12" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S12" s="5" t="inlineStr">
+      <c r="T12" s="5" t="inlineStr">
         <is>
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T12" s="6" t="n">
+      <c r="U12" s="6" t="n">
         <v>44708</v>
       </c>
-      <c r="U12" s="6" t="n">
+      <c r="V12" s="6" t="n">
         <v>44720</v>
       </c>
-      <c r="V12" s="6" t="n">
+      <c r="W12" s="6" t="n">
         <v>44729</v>
       </c>
-      <c r="W12" s="6" t="n">
+      <c r="X12" s="6" t="n">
         <v>44742</v>
       </c>
-      <c r="X12" s="5" t="inlineStr">
+      <c r="Y12" s="5" t="inlineStr">
         <is>
           <t>Sept. 12, 2022</t>
         </is>
       </c>
-      <c r="Y12" s="5" t="inlineStr">
+      <c r="Z12" s="5" t="inlineStr">
         <is>
           <t>MJMARI Builders and Development Corporation</t>
         </is>
       </c>
-      <c r="Z12" s="5" t="inlineStr"/>
-      <c r="AA12" s="7" t="n"/>
+      <c r="AA12" s="5" t="inlineStr"/>
+      <c r="AB12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="5" t="n">
+        <v>2425</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>QRF 2022</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>Zamboanga del Norte</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="5" t="n">
         <v>124625</v>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Bacong CS</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>SALUG</t>
         </is>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="H13" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J13" s="5" t="inlineStr">
+      <c r="K13" s="5" t="inlineStr">
         <is>
           <t>REPAIR/ REHABILITATION</t>
         </is>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="L13" s="5" t="n">
         <v>3348970.27</v>
       </c>
-      <c r="L13" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5" t="n">
         <v>3338470.27</v>
       </c>
-      <c r="N13" s="5" t="inlineStr">
+      <c r="O13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="6" t="n">
-        <v>44925</v>
+      <c r="P13" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="Q13" s="6" t="n">
         <v>44925</v>
       </c>
-      <c r="R13" s="5" t="inlineStr">
+      <c r="R13" s="6" t="n">
+        <v>44925</v>
+      </c>
+      <c r="S13" s="5" t="inlineStr">
         <is>
           <t>QRF 2022 - RIX - ZAMBOANGA DEL NORTE</t>
         </is>
       </c>
-      <c r="S13" s="5" t="inlineStr">
+      <c r="T13" s="5" t="inlineStr">
         <is>
           <t>QRF2022-R IX-ZDN-1</t>
         </is>
       </c>
-      <c r="T13" s="6" t="n">
+      <c r="U13" s="6" t="n">
         <v>44708</v>
       </c>
-      <c r="U13" s="6" t="n">
+      <c r="V13" s="6" t="n">
         <v>44720</v>
       </c>
-      <c r="V13" s="6" t="n">
+      <c r="W13" s="6" t="n">
         <v>44729</v>
       </c>
-      <c r="W13" s="6" t="n">
+      <c r="X13" s="6" t="n">
         <v>44742</v>
       </c>
-      <c r="X13" s="5" t="inlineStr">
+      <c r="Y13" s="5" t="inlineStr">
         <is>
           <t>Sept. 12, 2022</t>
         </is>
       </c>
-      <c r="Y13" s="5" t="inlineStr">
+      <c r="Z13" s="5" t="inlineStr">
         <is>
           <t>YSL Builders</t>
         </is>
       </c>
-      <c r="Z13" s="5" t="inlineStr"/>
-      <c r="AA13" s="7" t="n"/>
+      <c r="AA13" s="5" t="inlineStr"/>
+      <c r="AB13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="5" t="n">
+        <v>2851</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Dapitan City</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>125916</v>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Ilaya Elementary School</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>DAPITAN CITY</t>
         </is>
       </c>
-      <c r="G14" s="5" t="inlineStr">
+      <c r="H14" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H14" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="J14" s="5" t="inlineStr">
+      <c r="K14" s="5" t="inlineStr">
         <is>
           <t>2STY10CL</t>
         </is>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="L14" s="5" t="n">
         <v>32421818.53105485</v>
       </c>
-      <c r="L14" s="5" t="inlineStr">
+      <c r="M14" s="5" t="inlineStr">
         <is>
           <t>2- NC</t>
         </is>
       </c>
-      <c r="M14" s="5" t="n">
+      <c r="N14" s="5" t="n">
         <v>32327913.17</v>
       </c>
-      <c r="N14" s="5" t="inlineStr">
+      <c r="O14" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O14" s="5" t="n">
+      <c r="P14" s="5" t="n">
         <v>0.79</v>
       </c>
-      <c r="P14" s="6" t="n">
+      <c r="Q14" s="6" t="n">
         <v>45505</v>
       </c>
-      <c r="Q14" s="5" t="inlineStr"/>
-      <c r="R14" s="5" t="inlineStr">
+      <c r="R14" s="5" t="inlineStr"/>
+      <c r="S14" s="5" t="inlineStr">
         <is>
           <t>SDODAP-INFRA-2023-003</t>
         </is>
       </c>
-      <c r="S14" s="5" t="inlineStr">
+      <c r="T14" s="5" t="inlineStr">
         <is>
           <t>SDODAP-INFRA-2023-003</t>
         </is>
       </c>
-      <c r="T14" s="6" t="n">
+      <c r="U14" s="6" t="n">
         <v>45244</v>
       </c>
-      <c r="U14" s="6" t="n">
+      <c r="V14" s="6" t="n">
         <v>45251</v>
       </c>
-      <c r="V14" s="6" t="n">
+      <c r="W14" s="6" t="n">
         <v>45267</v>
       </c>
-      <c r="W14" s="6" t="n">
+      <c r="X14" s="6" t="n">
         <v>45282</v>
       </c>
-      <c r="X14" s="6" t="n">
+      <c r="Y14" s="6" t="n">
         <v>45294</v>
       </c>
-      <c r="Y14" s="5" t="inlineStr">
+      <c r="Z14" s="5" t="inlineStr">
         <is>
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z14" s="5" t="inlineStr"/>
-      <c r="AA14" s="7" t="n"/>
+      <c r="AA14" s="5" t="inlineStr"/>
+      <c r="AB14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="5" t="n">
+        <v>2852</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>Dapitan City</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>125919</v>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>Oyan Elementary School</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>DAPITAN CITY</t>
         </is>
       </c>
-      <c r="G15" s="5" t="inlineStr">
+      <c r="H15" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H15" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J15" s="5" t="inlineStr">
+      <c r="K15" s="5" t="inlineStr">
         <is>
           <t>1STY4CL</t>
         </is>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="L15" s="5" t="n">
         <v>21233503.46665002</v>
       </c>
-      <c r="L15" s="5" t="inlineStr">
+      <c r="M15" s="5" t="inlineStr">
         <is>
           <t>2- NC</t>
         </is>
       </c>
-      <c r="M15" s="5" t="n">
+      <c r="N15" s="5" t="n">
         <v>21363407.93</v>
       </c>
-      <c r="N15" s="5" t="inlineStr">
+      <c r="O15" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="O15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="6" t="n">
+      <c r="P15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="6" t="n">
         <v>45474</v>
       </c>
-      <c r="Q15" s="5" t="inlineStr"/>
-      <c r="R15" s="5" t="inlineStr">
+      <c r="R15" s="5" t="inlineStr"/>
+      <c r="S15" s="5" t="inlineStr">
         <is>
           <t>SDODAP-INFRA-2023-002</t>
         </is>
       </c>
-      <c r="S15" s="5" t="inlineStr">
+      <c r="T15" s="5" t="inlineStr">
         <is>
           <t>SDODAP-INFRA-2023-002</t>
         </is>
       </c>
-      <c r="T15" s="5" t="inlineStr"/>
-      <c r="U15" s="6" t="n">
+      <c r="U15" s="5" t="inlineStr"/>
+      <c r="V15" s="6" t="n">
         <v>45251</v>
       </c>
-      <c r="V15" s="6" t="n">
+      <c r="W15" s="6" t="n">
         <v>45267</v>
       </c>
-      <c r="W15" s="6" t="n">
+      <c r="X15" s="6" t="n">
         <v>45282</v>
       </c>
-      <c r="X15" s="6" t="n">
+      <c r="Y15" s="6" t="n">
         <v>45294</v>
       </c>
-      <c r="Y15" s="5" t="inlineStr">
+      <c r="Z15" s="5" t="inlineStr">
         <is>
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z15" s="5" t="inlineStr"/>
-      <c r="AA15" s="7" t="n"/>
+      <c r="AA15" s="5" t="inlineStr"/>
+      <c r="AB15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="5" t="n">
+        <v>2853</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>QRF 2023</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Dapitan City</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="E16" s="5" t="n">
         <v>125919</v>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>Oyan Elementary School</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>DAPITAN CITY</t>
         </is>
       </c>
-      <c r="G16" s="5" t="inlineStr">
+      <c r="H16" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="n">
+      <c r="I16" s="5" t="inlineStr"/>
+      <c r="J16" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J16" s="5" t="inlineStr">
+      <c r="K16" s="5" t="inlineStr">
         <is>
           <t>REPAIR OF CLASSROOMS</t>
         </is>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="L16" s="5" t="n">
         <v>2524721.336038103</v>
       </c>
-      <c r="L16" s="5" t="inlineStr">
+      <c r="M16" s="5" t="inlineStr">
         <is>
           <t>2-R</t>
         </is>
       </c>
-      <c r="M16" s="5" t="n">
+      <c r="N16" s="5" t="n">
         <v>2488604.93</v>
       </c>
-      <c r="N16" s="5" t="inlineStr">
+      <c r="O16" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="6" t="n">
+      <c r="P16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="6" t="n">
         <v>45371</v>
       </c>
-      <c r="Q16" s="6" t="n">
+      <c r="R16" s="6" t="n">
         <v>45369</v>
       </c>
-      <c r="R16" s="5" t="inlineStr">
+      <c r="S16" s="5" t="inlineStr">
         <is>
           <t>SDODAP-INFRA-2023-001</t>
         </is>
       </c>
-      <c r="S16" s="5" t="inlineStr">
+      <c r="T16" s="5" t="inlineStr">
         <is>
           <t>SDODAP-INFRA-2023-001</t>
         </is>
       </c>
-      <c r="T16" s="5" t="inlineStr"/>
-      <c r="U16" s="6" t="n">
+      <c r="U16" s="5" t="inlineStr"/>
+      <c r="V16" s="6" t="n">
         <v>45251</v>
       </c>
-      <c r="V16" s="6" t="n">
+      <c r="W16" s="6" t="n">
         <v>45267</v>
       </c>
-      <c r="W16" s="6" t="n">
+      <c r="X16" s="6" t="n">
         <v>45282</v>
       </c>
-      <c r="X16" s="6" t="n">
+      <c r="Y16" s="6" t="n">
         <v>45294</v>
       </c>
-      <c r="Y16" s="5" t="inlineStr">
+      <c r="Z16" s="5" t="inlineStr">
         <is>
           <t>MORTE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z16" s="5" t="inlineStr"/>
-      <c r="AA16" s="7" t="n"/>
+      <c r="AA16" s="5" t="inlineStr"/>
+      <c r="AB16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="5" t="n">
+        <v>3228</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>QRF 2024</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Region IX</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>Zamboanga Del Norte</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="E17" s="5" t="n">
         <v>124575</v>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>Lingasad ES</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>POLANCO</t>
         </is>
       </c>
-      <c r="G17" s="5" t="inlineStr">
+      <c r="H17" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H17" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J17" s="5" t="inlineStr">
+      <c r="K17" s="5" t="inlineStr">
         <is>
           <t>2STY6CL with PWD ramp with handrails, parapet all on concrete gutter and complete with Electrical works, Sanitary/plumbing works, Ventilation, Water pumping and Fire protection systems</t>
         </is>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="L17" s="5" t="n">
         <v>24877957.84</v>
       </c>
-      <c r="L17" s="5" t="inlineStr">
+      <c r="M17" s="5" t="inlineStr">
         <is>
           <t>1- NC</t>
         </is>
       </c>
-      <c r="M17" s="5" t="n">
+      <c r="N17" s="5" t="n">
         <v>24837942.65</v>
       </c>
-      <c r="N17" s="5" t="inlineStr">
+      <c r="O17" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="O17" s="5" t="n">
+      <c r="P17" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="P17" s="5" t="inlineStr">
+      <c r="Q17" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q17" s="5" t="inlineStr">
+      <c r="R17" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="R17" s="5" t="inlineStr">
+      <c r="S17" s="5" t="inlineStr">
         <is>
           <t>2024-049-CBZN</t>
         </is>
       </c>
-      <c r="S17" s="5" t="inlineStr">
+      <c r="T17" s="5" t="inlineStr">
         <is>
           <t>CB-2024-043</t>
         </is>
       </c>
-      <c r="T17" s="5" t="inlineStr">
+      <c r="U17" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="U17" s="5" t="inlineStr">
+      <c r="V17" s="5" t="inlineStr">
         <is>
           <t>Aug. 01, 2024</t>
         </is>
       </c>
-      <c r="V17" s="5" t="inlineStr">
+      <c r="W17" s="5" t="inlineStr">
         <is>
           <t>Aug. 14, 2024</t>
         </is>
       </c>
-      <c r="W17" s="5" t="inlineStr">
+      <c r="X17" s="5" t="inlineStr">
         <is>
           <t>Sept. 5, 2024</t>
         </is>
       </c>
-      <c r="X17" s="5" t="inlineStr">
+      <c r="Y17" s="5" t="inlineStr">
         <is>
           <t>Sept. 10, 2024</t>
         </is>
       </c>
-      <c r="Y17" s="5" t="inlineStr">
+      <c r="Z17" s="5" t="inlineStr">
         <is>
           <t>YSL BUILDERS</t>
         </is>
       </c>
-      <c r="Z17" s="5" t="inlineStr"/>
-      <c r="AA17" s="7" t="n"/>
+      <c r="AA17" s="5" t="inlineStr"/>
+      <c r="AB17" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AB2:AB17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
